--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H2">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I2">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J2">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N2">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O2">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P2">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q2">
-        <v>3.009575485054</v>
+        <v>2.060805803227111</v>
       </c>
       <c r="R2">
-        <v>27.086179365486</v>
+        <v>18.547252229044</v>
       </c>
       <c r="S2">
-        <v>0.01030227981847394</v>
+        <v>0.008511553760538746</v>
       </c>
       <c r="T2">
-        <v>0.0122029273855688</v>
+        <v>0.009884615106194429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H3">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I3">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J3">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P3">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q3">
-        <v>27.957638264002</v>
+        <v>26.20398378419045</v>
       </c>
       <c r="R3">
-        <v>251.618744376018</v>
+        <v>235.835854057714</v>
       </c>
       <c r="S3">
-        <v>0.09570366780624359</v>
+        <v>0.1082278671625241</v>
       </c>
       <c r="T3">
-        <v>0.1133598513484353</v>
+        <v>0.1256869005075962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H4">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I4">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J4">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N4">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O4">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P4">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q4">
-        <v>0.8636266551839999</v>
+        <v>1.250611462210222</v>
       </c>
       <c r="R4">
-        <v>7.772639896656</v>
+        <v>11.255503159892</v>
       </c>
       <c r="S4">
-        <v>0.002956338362198823</v>
+        <v>0.005165283733906094</v>
       </c>
       <c r="T4">
-        <v>0.003501747476941229</v>
+        <v>0.00599853364736509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H5">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I5">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J5">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N5">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O5">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P5">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q5">
-        <v>21.053897725275</v>
+        <v>15.609200851662</v>
       </c>
       <c r="R5">
-        <v>126.32338635165</v>
+        <v>93.65520510997199</v>
       </c>
       <c r="S5">
-        <v>0.07207101025127573</v>
+        <v>0.06446922461103272</v>
       </c>
       <c r="T5">
-        <v>0.05691150050909661</v>
+        <v>0.04991281963341713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.867102</v>
+        <v>0.8127126666666666</v>
       </c>
       <c r="H6">
-        <v>2.601306</v>
+        <v>2.438138</v>
       </c>
       <c r="I6">
-        <v>0.1822127481805035</v>
+        <v>0.1893611171518221</v>
       </c>
       <c r="J6">
-        <v>0.1873730734573072</v>
+        <v>0.1949519420288279</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N6">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O6">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P6">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q6">
-        <v>0.344549916516</v>
+        <v>0.7232538616917777</v>
       </c>
       <c r="R6">
-        <v>3.100949248644</v>
+        <v>6.509284755225999</v>
       </c>
       <c r="S6">
-        <v>0.001179451942311384</v>
+        <v>0.002987187883820414</v>
       </c>
       <c r="T6">
-        <v>0.001397046737265372</v>
+        <v>0.003469073134255017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>8.54391</v>
       </c>
       <c r="I7">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J7">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N7">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O7">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P7">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q7">
-        <v>9.884858637356668</v>
+        <v>7.221633603286667</v>
       </c>
       <c r="R7">
-        <v>88.96372773621002</v>
+        <v>64.99470242958</v>
       </c>
       <c r="S7">
-        <v>0.03383752298416936</v>
+        <v>0.02982683887876921</v>
       </c>
       <c r="T7">
-        <v>0.0400801417898683</v>
+        <v>0.03463842565595781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>8.54391</v>
       </c>
       <c r="I8">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J8">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O8">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P8">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q8">
         <v>91.82600783613667</v>
@@ -948,10 +948,10 @@
         <v>826.4340705252301</v>
       </c>
       <c r="S8">
-        <v>0.3143357699580298</v>
+        <v>0.3792603849858217</v>
       </c>
       <c r="T8">
-        <v>0.3723269648147543</v>
+        <v>0.4404416674182742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>8.54391</v>
       </c>
       <c r="I9">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J9">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N9">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O9">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P9">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q9">
-        <v>2.83655533624</v>
+        <v>4.382488512993334</v>
       </c>
       <c r="R9">
-        <v>25.52899802616</v>
+        <v>39.44239661694</v>
       </c>
       <c r="S9">
-        <v>0.009710002935515525</v>
+        <v>0.01810058304614325</v>
       </c>
       <c r="T9">
-        <v>0.01150138249237611</v>
+        <v>0.02102052124000326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>8.54391</v>
       </c>
       <c r="I10">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J10">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N10">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O10">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P10">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q10">
-        <v>69.15088317712501</v>
+        <v>54.69895766709</v>
       </c>
       <c r="R10">
-        <v>414.90529906275</v>
+        <v>328.19374600254</v>
       </c>
       <c r="S10">
-        <v>0.2367150289877382</v>
+        <v>0.2259179967854357</v>
       </c>
       <c r="T10">
-        <v>0.186924082870172</v>
+        <v>0.1749083270898321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>8.54391</v>
       </c>
       <c r="I11">
-        <v>0.5984721986982252</v>
+        <v>0.6635737363695673</v>
       </c>
       <c r="J11">
-        <v>0.6154211292491624</v>
+        <v>0.6831655332961148</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N11">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O11">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P11">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q11">
-        <v>1.13166366326</v>
+        <v>2.534481600896667</v>
       </c>
       <c r="R11">
-        <v>10.18497296934</v>
+        <v>22.81033440807</v>
       </c>
       <c r="S11">
-        <v>0.003873873832772329</v>
+        <v>0.01046793267339752</v>
       </c>
       <c r="T11">
-        <v>0.004588557281991809</v>
+        <v>0.01215659189204745</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H12">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I12">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J12">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N12">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O12">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P12">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q12">
-        <v>0.1054650556553333</v>
+        <v>0.936301759316</v>
       </c>
       <c r="R12">
-        <v>0.9491855008980001</v>
+        <v>5.617810555896</v>
       </c>
       <c r="S12">
-        <v>0.0003610245098779025</v>
+        <v>0.003867119719881184</v>
       </c>
       <c r="T12">
-        <v>0.000427629219558822</v>
+        <v>0.002993968831544292</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H13">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I13">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J13">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O13">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P13">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q13">
-        <v>0.9797241804193334</v>
+        <v>11.905457602946</v>
       </c>
       <c r="R13">
-        <v>8.817517623774002</v>
+        <v>71.43274561767601</v>
       </c>
       <c r="S13">
-        <v>0.003353759592251566</v>
+        <v>0.04917199974524827</v>
       </c>
       <c r="T13">
-        <v>0.003972488176792988</v>
+        <v>0.03806953114616798</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H14">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I14">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J14">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N14">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O14">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P14">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q14">
-        <v>0.030264212912</v>
+        <v>0.568199929588</v>
       </c>
       <c r="R14">
-        <v>0.272377916208</v>
+        <v>3.409199577528</v>
       </c>
       <c r="S14">
-        <v>0.0001035994582803101</v>
+        <v>0.002346783107777192</v>
       </c>
       <c r="T14">
-        <v>0.0001227123208507605</v>
+        <v>0.001816906635436526</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H15">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I15">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J15">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N15">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O15">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P15">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q15">
-        <v>0.7377952493250001</v>
+        <v>7.091848342062</v>
       </c>
       <c r="R15">
-        <v>4.426771495950001</v>
+        <v>28.367393368248</v>
       </c>
       <c r="S15">
-        <v>0.002525596432132857</v>
+        <v>0.02929079893434094</v>
       </c>
       <c r="T15">
-        <v>0.001994359203956869</v>
+        <v>0.01511818362895024</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.030386</v>
+        <v>0.369246</v>
       </c>
       <c r="H16">
-        <v>0.091158</v>
+        <v>0.738492</v>
       </c>
       <c r="I16">
-        <v>0.006385311723664319</v>
+        <v>0.08603389356612508</v>
       </c>
       <c r="J16">
-        <v>0.006566145862970835</v>
+        <v>0.05904934403743888</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N16">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O16">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P16">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q16">
-        <v>0.012074120188</v>
+        <v>0.328601492714</v>
       </c>
       <c r="R16">
-        <v>0.108667081692</v>
+        <v>1.971608956284</v>
       </c>
       <c r="S16">
-        <v>4.133173112168316E-05</v>
+        <v>0.001357192058877495</v>
       </c>
       <c r="T16">
-        <v>4.895694181139659E-05</v>
+        <v>0.001050753795339828</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H17">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I17">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J17">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N17">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O17">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P17">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q17">
-        <v>1.364638546110667</v>
+        <v>0.6641995044813332</v>
       </c>
       <c r="R17">
-        <v>8.187831276664001</v>
+        <v>5.977795540332</v>
       </c>
       <c r="S17">
-        <v>0.004671385789433116</v>
+        <v>0.002743281187030429</v>
       </c>
       <c r="T17">
-        <v>0.00368880044565219</v>
+        <v>0.003185820054098279</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H18">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I18">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J18">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O18">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P18">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q18">
-        <v>12.67689447323867</v>
+        <v>8.445566786371334</v>
       </c>
       <c r="R18">
-        <v>76.061366839432</v>
+        <v>76.01010107734201</v>
       </c>
       <c r="S18">
-        <v>0.04339512823026172</v>
+        <v>0.03488193580775645</v>
       </c>
       <c r="T18">
-        <v>0.03426734069299573</v>
+        <v>0.04050899745440012</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H19">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I19">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J19">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N19">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O19">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P19">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q19">
-        <v>0.3915961666239999</v>
+        <v>0.4030731630306666</v>
       </c>
       <c r="R19">
-        <v>2.349576999743999</v>
+        <v>3.627658467276</v>
       </c>
       <c r="S19">
-        <v>0.001340499118376426</v>
+        <v>0.001664775444242977</v>
       </c>
       <c r="T19">
-        <v>0.001058536795751009</v>
+        <v>0.00193333261676351</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H20">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I20">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J20">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N20">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O20">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P20">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q20">
-        <v>9.546515953649999</v>
+        <v>5.030859023586</v>
       </c>
       <c r="R20">
-        <v>38.1860638146</v>
+        <v>30.185154141516</v>
       </c>
       <c r="S20">
-        <v>0.03267931943706113</v>
+        <v>0.0207784872179073</v>
       </c>
       <c r="T20">
-        <v>0.01720367267684965</v>
+        <v>0.016086945221072</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,371 +1703,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.393172</v>
+        <v>0.261938</v>
       </c>
       <c r="H21">
-        <v>0.7863439999999999</v>
+        <v>0.785814</v>
       </c>
       <c r="I21">
-        <v>0.08262113410835738</v>
+        <v>0.06103125291248564</v>
       </c>
       <c r="J21">
-        <v>0.05664066129656133</v>
+        <v>0.06283318063761828</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N21">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O21">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P21">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q21">
-        <v>0.156230039576</v>
+        <v>0.2331053492753333</v>
       </c>
       <c r="R21">
-        <v>0.9373802374559999</v>
+        <v>2.097948143478</v>
       </c>
       <c r="S21">
-        <v>0.0005348015332249854</v>
+        <v>0.0009627732555484779</v>
       </c>
       <c r="T21">
-        <v>0.0004223106853127628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.620104</v>
-      </c>
-      <c r="H22">
-        <v>1.860312</v>
-      </c>
-      <c r="I22">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J22">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3.470843666666667</v>
-      </c>
-      <c r="N22">
-        <v>10.412531</v>
-      </c>
-      <c r="O22">
-        <v>0.05653984104486641</v>
-      </c>
-      <c r="P22">
-        <v>0.0651263661336549</v>
-      </c>
-      <c r="Q22">
-        <v>2.152284041074667</v>
-      </c>
-      <c r="R22">
-        <v>19.370556369672</v>
-      </c>
-      <c r="S22">
-        <v>0.007367627942912094</v>
-      </c>
-      <c r="T22">
-        <v>0.008726867293006771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.620104</v>
-      </c>
-      <c r="H23">
-        <v>1.860312</v>
-      </c>
-      <c r="I23">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J23">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>32.24261766666667</v>
-      </c>
-      <c r="N23">
-        <v>96.72785300000001</v>
-      </c>
-      <c r="O23">
-        <v>0.5252303626496961</v>
-      </c>
-      <c r="P23">
-        <v>0.6049954204026236</v>
-      </c>
-      <c r="Q23">
-        <v>19.99377618557067</v>
-      </c>
-      <c r="R23">
-        <v>179.943985670136</v>
-      </c>
-      <c r="S23">
-        <v>0.06844203706290941</v>
-      </c>
-      <c r="T23">
-        <v>0.08106877536964519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.620104</v>
-      </c>
-      <c r="H24">
-        <v>1.860312</v>
-      </c>
-      <c r="I24">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J24">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.9959919999999999</v>
-      </c>
-      <c r="N24">
-        <v>2.987976</v>
-      </c>
-      <c r="O24">
-        <v>0.01622465163233374</v>
-      </c>
-      <c r="P24">
-        <v>0.01868863765923709</v>
-      </c>
-      <c r="Q24">
-        <v>0.6176186231679999</v>
-      </c>
-      <c r="R24">
-        <v>5.558567608511999</v>
-      </c>
-      <c r="S24">
-        <v>0.00211421175796266</v>
-      </c>
-      <c r="T24">
-        <v>0.002504258573317976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.620104</v>
-      </c>
-      <c r="H25">
-        <v>1.860312</v>
-      </c>
-      <c r="I25">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J25">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.2807625</v>
-      </c>
-      <c r="N25">
-        <v>48.561525</v>
-      </c>
-      <c r="O25">
-        <v>0.3955322060116276</v>
-      </c>
-      <c r="P25">
-        <v>0.3037336126210463</v>
-      </c>
-      <c r="Q25">
-        <v>15.0565979493</v>
-      </c>
-      <c r="R25">
-        <v>90.33958769580001</v>
-      </c>
-      <c r="S25">
-        <v>0.05154125090341976</v>
-      </c>
-      <c r="T25">
-        <v>0.04069999736097119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.620104</v>
-      </c>
-      <c r="H26">
-        <v>1.860312</v>
-      </c>
-      <c r="I26">
-        <v>0.1303086072892496</v>
-      </c>
-      <c r="J26">
-        <v>0.1339989901339981</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.3973579999999999</v>
-      </c>
-      <c r="N26">
-        <v>1.192074</v>
-      </c>
-      <c r="O26">
-        <v>0.006472938661476068</v>
-      </c>
-      <c r="P26">
-        <v>0.007455963183438351</v>
-      </c>
-      <c r="Q26">
-        <v>0.2464032852319999</v>
-      </c>
-      <c r="R26">
-        <v>2.217629567088</v>
-      </c>
-      <c r="S26">
-        <v>0.000843479622045686</v>
-      </c>
-      <c r="T26">
-        <v>0.0009990915370570086</v>
+        <v>0.001118085291284362</v>
       </c>
     </row>
   </sheetData>
